--- a/src/Web/WHMS.Web/wwwroot/ExcelUploads/ProductImportTemplate.xlsx
+++ b/src/Web/WHMS.Web/wwwroot/ExcelUploads/ProductImportTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WHMS\src\Web\WHMS.Web\wwwroot\ExcelUploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60845D2B-D988-402B-A3D2-F7822E9E711C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BC3867-8B1E-420C-984A-D800AEB88816}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28920" yWindow="1170" windowWidth="28680" windowHeight="11550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>SKU</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>ImportedSku1</t>
+  </si>
+  <si>
+    <t>PrimaryImageURL</t>
   </si>
 </sst>
 </file>
@@ -397,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,9 +417,10 @@
     <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,8 +466,11 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
